--- a/test/xxx.xlsx
+++ b/test/xxx.xlsx
@@ -8,32 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>工号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>265026</t>
-  </si>
-  <si>
-    <t>张健</t>
-  </si>
-  <si>
-    <t>2650261</t>
-  </si>
-  <si>
-    <t>张健1</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,45 +318,72 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" max="1" min="1" width="10"/>
-    <col customWidth="true" max="2" min="2" width="20"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" error="长度不符合要求, 最大6位" errorStyle="stop" errorTitle="error" operator="between" showErrorMessage="true" sqref="A:A" type="textLength">
-      <formula1>0</formula1>
-      <formula2>6</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="长度不符合要求, 最大200位" errorStyle="stop" errorTitle="error" operator="between" showErrorMessage="true" sqref="B:B" type="textLength">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
+  <sheetData/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" error="string" errorStyle="stop" errorTitle="string" showErrorMessage="true" sqref="A:A" type="list">
+      <formula1>Sheet2!A:A</formula1>
     </dataValidation>
   </dataValidations>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>